--- a/results/ewc.xlsx
+++ b/results/ewc.xlsx
@@ -588,7 +588,7 @@
         <v>200133</v>
       </c>
       <c r="B26">
-        <v>452.5329999999999</v>
+        <v>452.533</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>20704</v>
       </c>
       <c r="B27">
-        <v>597.8619999999999</v>
+        <v>597.862</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -612,7 +612,7 @@
         <v>170203</v>
       </c>
       <c r="B29">
-        <v>661.6939999999998</v>
+        <v>661.6939999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -633,34 +633,34 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>170604</v>
+        <v>170106</v>
       </c>
       <c r="B32">
-        <v>1117.73</v>
+        <v>1047.872</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>20601</v>
+        <v>170604</v>
       </c>
       <c r="B33">
-        <v>1165.602</v>
+        <v>1117.73</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>170401</v>
+        <v>20601</v>
       </c>
       <c r="B34">
-        <v>1280.972</v>
+        <v>1165.602</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>170106</v>
+        <v>170401</v>
       </c>
       <c r="B35">
-        <v>2019.612</v>
+        <v>1280.972</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>200123</v>
       </c>
       <c r="B36">
-        <v>2622.49</v>
+        <v>2622.490000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -692,7 +692,7 @@
         <v>200137</v>
       </c>
       <c r="B39">
-        <v>3500.507</v>
+        <v>3503.666999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>170402</v>
       </c>
       <c r="B40">
-        <v>3590.041000000001</v>
+        <v>3590.041</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>200111</v>
       </c>
       <c r="B41">
-        <v>3706.078</v>
+        <v>3706.077999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>170202</v>
       </c>
       <c r="B42">
-        <v>4071.914999999997</v>
+        <v>4071.915</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -737,26 +737,26 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>30310</v>
+        <v>170301</v>
       </c>
       <c r="B45">
-        <v>4786.92</v>
+        <v>4772.120000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>20502</v>
+        <v>30310</v>
       </c>
       <c r="B46">
-        <v>5488.099999999999</v>
+        <v>4786.92</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>200202</v>
+        <v>20502</v>
       </c>
       <c r="B47">
-        <v>6051.616000000002</v>
+        <v>5488.1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,63 +764,63 @@
         <v>170303</v>
       </c>
       <c r="B48">
-        <v>6227.839999999997</v>
+        <v>6227.839999999991</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>170407</v>
+        <v>200202</v>
       </c>
       <c r="B49">
-        <v>8006.500999999999</v>
+        <v>7339.616000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>170802</v>
+        <v>170407</v>
       </c>
       <c r="B50">
-        <v>8305.494999999997</v>
+        <v>8006.501000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>200136</v>
+        <v>170802</v>
       </c>
       <c r="B51">
-        <v>9285.007999999996</v>
+        <v>8291.335000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>20199</v>
+        <v>200136</v>
       </c>
       <c r="B52">
-        <v>12383.748</v>
+        <v>9285.007999999998</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>20301</v>
+        <v>20199</v>
       </c>
       <c r="B53">
-        <v>13155.71</v>
+        <v>12383.748</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>200135</v>
+        <v>20301</v>
       </c>
       <c r="B54">
-        <v>13247.283</v>
+        <v>13155.71</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>170301</v>
+        <v>200135</v>
       </c>
       <c r="B55">
-        <v>14052.79</v>
+        <v>13247.283</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>170204</v>
       </c>
       <c r="B56">
-        <v>14507.809</v>
+        <v>14504.42900000001</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>20103</v>
       </c>
       <c r="B57">
-        <v>15900.625</v>
+        <v>15892.245</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -852,7 +852,7 @@
         <v>170605</v>
       </c>
       <c r="B59">
-        <v>17296.82800000006</v>
+        <v>17349.26800000003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>170102</v>
       </c>
       <c r="B60">
-        <v>20954.49999999999</v>
+        <v>19634.53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -884,7 +884,7 @@
         <v>200139</v>
       </c>
       <c r="B63">
-        <v>31000.01099999999</v>
+        <v>30988.75099999998</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -900,7 +900,7 @@
         <v>200102</v>
       </c>
       <c r="B65">
-        <v>65755.85900000007</v>
+        <v>65755.85899999998</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -924,7 +924,7 @@
         <v>200101</v>
       </c>
       <c r="B68">
-        <v>81094.97299999991</v>
+        <v>81049.48299999993</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>170506</v>
       </c>
       <c r="B69">
-        <v>99943.202</v>
+        <v>102044.442</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>200140</v>
       </c>
       <c r="B70">
-        <v>103820.6569999999</v>
+        <v>103734.4569999999</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>170201</v>
       </c>
       <c r="B72">
-        <v>119080.5059999998</v>
+        <v>119077.2859999998</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>170405</v>
       </c>
       <c r="B73">
-        <v>131083.965</v>
+        <v>131513.815</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -980,7 +980,7 @@
         <v>200201</v>
       </c>
       <c r="B75">
-        <v>231752.8009999999</v>
+        <v>231367.881</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>170302</v>
       </c>
       <c r="B76">
-        <v>374222.1739999996</v>
+        <v>424340.2239999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>170101</v>
       </c>
       <c r="B77">
-        <v>454981.4500000001</v>
+        <v>454546.8700000002</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>170904</v>
       </c>
       <c r="B78">
-        <v>524302.2350000008</v>
+        <v>523516.3650000007</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>170107</v>
       </c>
       <c r="B79">
-        <v>1088620.291000001</v>
+        <v>1090482.851000001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>200301</v>
       </c>
       <c r="B80">
-        <v>1132950.773</v>
+        <v>1133020.762999999</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>170504</v>
       </c>
       <c r="B81">
-        <v>1318927.875999999</v>
+        <v>1313751.750999999</v>
       </c>
     </row>
   </sheetData>
